--- a/Модели Excel/New Logic_Var_M&P_Check.xlsx
+++ b/Модели Excel/New Logic_Var_M&P_Check.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generation Linear regression" sheetId="3" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000000_ ;\-0.0000000\ "/>
@@ -619,7 +619,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -772,7 +772,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -881,7 +881,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -896,11 +896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="809764607"/>
-        <c:axId val="809764191"/>
+        <c:axId val="-880669280"/>
+        <c:axId val="-880644800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="809764607"/>
+        <c:axId val="-880669280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +942,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764191"/>
+        <c:crossAx val="-880644800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="809764191"/>
+        <c:axId val="-880644800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1001,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764607"/>
+        <c:crossAx val="-880669280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1083,7 +1083,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1325,7 +1325,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31EF-490F-8D09-3A9ECA9824B3}"/>
             </c:ext>
@@ -1340,11 +1340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1475245375"/>
-        <c:axId val="1252397599"/>
+        <c:axId val="-1618382544"/>
+        <c:axId val="-1618380368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1475245375"/>
+        <c:axId val="-1618382544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1386,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252397599"/>
+        <c:crossAx val="-1618380368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1394,7 +1394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252397599"/>
+        <c:axId val="-1618380368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1445,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475245375"/>
+        <c:crossAx val="-1618382544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1758,7 +1758,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8F9-47E2-84E9-0EDF1B79F09C}"/>
             </c:ext>
@@ -1951,7 +1951,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B8F9-47E2-84E9-0EDF1B79F09C}"/>
             </c:ext>
@@ -1966,11 +1966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1385986304"/>
-        <c:axId val="1385985888"/>
+        <c:axId val="-1021385664"/>
+        <c:axId val="-1021384032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1385986304"/>
+        <c:axId val="-1021385664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2013,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385985888"/>
+        <c:crossAx val="-1021384032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2021,7 +2021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1385985888"/>
+        <c:axId val="-1021384032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2072,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385986304"/>
+        <c:crossAx val="-1021385664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2154,7 +2154,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2417,7 +2417,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0AF8-4DAD-94DD-BA6467B5196E}"/>
             </c:ext>
@@ -2610,7 +2610,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0AF8-4DAD-94DD-BA6467B5196E}"/>
             </c:ext>
@@ -2625,11 +2625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1385988800"/>
-        <c:axId val="1385990464"/>
+        <c:axId val="-1021398720"/>
+        <c:axId val="-1021391104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1385988800"/>
+        <c:axId val="-1021398720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,7 +2672,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385990464"/>
+        <c:crossAx val="-1021391104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2680,7 +2680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1385990464"/>
+        <c:axId val="-1021391104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,7 +2731,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385988800"/>
+        <c:crossAx val="-1021398720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2813,7 +2813,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2992,7 +2992,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-866D-46E0-9ECE-65B661DCF1DC}"/>
             </c:ext>
@@ -3101,7 +3101,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-866D-46E0-9ECE-65B661DCF1DC}"/>
             </c:ext>
@@ -3116,11 +3116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1922887952"/>
-        <c:axId val="1922888368"/>
+        <c:axId val="-1720707904"/>
+        <c:axId val="-1619417408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1922887952"/>
+        <c:axId val="-1720707904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,7 +3162,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1922888368"/>
+        <c:crossAx val="-1619417408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3170,7 +3170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1922888368"/>
+        <c:axId val="-1619417408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3221,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1922887952"/>
+        <c:crossAx val="-1720707904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3303,7 +3303,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3566,7 +3566,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6ABC-4523-94EC-FA5FCD9B3770}"/>
             </c:ext>
@@ -3759,7 +3759,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6ABC-4523-94EC-FA5FCD9B3770}"/>
             </c:ext>
@@ -3774,11 +3774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="37296"/>
-        <c:axId val="41040"/>
+        <c:axId val="-831655456"/>
+        <c:axId val="-831649472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37296"/>
+        <c:axId val="-831655456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3821,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41040"/>
+        <c:crossAx val="-831649472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3829,7 +3829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41040"/>
+        <c:axId val="-831649472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,7 +3880,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37296"/>
+        <c:crossAx val="-831655456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3962,7 +3962,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4112,7 +4112,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A2B-498C-9EAE-7D913CA9645F}"/>
             </c:ext>
@@ -4218,7 +4218,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6A2B-498C-9EAE-7D913CA9645F}"/>
             </c:ext>
@@ -4233,11 +4233,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1768463408"/>
-        <c:axId val="1768464240"/>
+        <c:axId val="-831645120"/>
+        <c:axId val="-831640224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768463408"/>
+        <c:axId val="-831645120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,7 +4279,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768464240"/>
+        <c:crossAx val="-831640224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4287,7 +4287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1768464240"/>
+        <c:axId val="-831640224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4338,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768463408"/>
+        <c:crossAx val="-831645120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4420,7 +4420,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4570,7 +4570,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7F8-465D-8A43-D7BE0411D9EC}"/>
             </c:ext>
@@ -4676,7 +4676,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7F8-465D-8A43-D7BE0411D9EC}"/>
             </c:ext>
@@ -4691,11 +4691,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1809115056"/>
-        <c:axId val="1809112560"/>
+        <c:axId val="-831639680"/>
+        <c:axId val="-831638048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809115056"/>
+        <c:axId val="-831639680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,7 +4737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809112560"/>
+        <c:crossAx val="-831638048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4745,7 +4745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809112560"/>
+        <c:axId val="-831638048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,7 +4796,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809115056"/>
+        <c:crossAx val="-831639680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4878,7 +4878,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5141,7 +5141,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-75B3-4090-8D6D-ED0ABC7144F3}"/>
             </c:ext>
@@ -5334,7 +5334,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-75B3-4090-8D6D-ED0ABC7144F3}"/>
             </c:ext>
@@ -5349,11 +5349,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1771193104"/>
-        <c:axId val="1771193520"/>
+        <c:axId val="-831648384"/>
+        <c:axId val="-831664160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1771193104"/>
+        <c:axId val="-831648384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,7 +5396,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771193520"/>
+        <c:crossAx val="-831664160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5404,7 +5404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1771193520"/>
+        <c:axId val="-831664160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5455,7 +5455,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771193104"/>
+        <c:crossAx val="-831648384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5537,7 +5537,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5551,7 +5551,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5687,7 +5686,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4687-40E0-9F3A-0C1B538FE03D}"/>
             </c:ext>
@@ -5793,7 +5792,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4687-40E0-9F3A-0C1B538FE03D}"/>
             </c:ext>
@@ -5808,11 +5807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1813504912"/>
-        <c:axId val="1813505744"/>
+        <c:axId val="-831637504"/>
+        <c:axId val="-831638592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1813504912"/>
+        <c:axId val="-831637504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5854,7 +5853,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813505744"/>
+        <c:crossAx val="-831638592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5862,7 +5861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1813505744"/>
+        <c:axId val="-831638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5912,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813504912"/>
+        <c:crossAx val="-831637504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5927,7 +5926,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5995,7 +5993,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6179,7 +6177,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACC2-48F8-817D-BE0448D84F61}"/>
             </c:ext>
@@ -6193,11 +6191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651863567"/>
-        <c:axId val="651853167"/>
+        <c:axId val="-831666880"/>
+        <c:axId val="-831663072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651863567"/>
+        <c:axId val="-831666880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6254,12 +6252,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651853167"/>
+        <c:crossAx val="-831663072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651853167"/>
+        <c:axId val="-831663072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,7 +6314,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651863567"/>
+        <c:crossAx val="-831666880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6331,7 +6329,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -6373,7 +6371,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6533,7 +6531,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6642,7 +6640,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6657,11 +6655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="613731967"/>
-        <c:axId val="613732383"/>
+        <c:axId val="-880668192"/>
+        <c:axId val="-880644256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="613731967"/>
+        <c:axId val="-880668192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6703,7 +6701,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613732383"/>
+        <c:crossAx val="-880644256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6711,7 +6709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613732383"/>
+        <c:axId val="-880644256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6762,7 +6760,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613731967"/>
+        <c:crossAx val="-880668192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6844,7 +6842,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6994,7 +6992,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D4BE-4A02-8551-976518B947F2}"/>
             </c:ext>
@@ -7008,11 +7006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466079135"/>
-        <c:axId val="466077887"/>
+        <c:axId val="-831644576"/>
+        <c:axId val="-831653280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466079135"/>
+        <c:axId val="-831644576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7069,12 +7067,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466077887"/>
+        <c:crossAx val="-831653280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466077887"/>
+        <c:axId val="-831653280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7131,7 +7129,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466079135"/>
+        <c:crossAx val="-831644576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7146,7 +7144,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7188,7 +7186,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7338,7 +7336,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AC1B-4E1A-A57D-C531CC8D08DC}"/>
             </c:ext>
@@ -7352,11 +7350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="535516751"/>
-        <c:axId val="535517999"/>
+        <c:axId val="-831657088"/>
+        <c:axId val="-831644032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="535516751"/>
+        <c:axId val="-831657088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7413,12 +7411,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535517999"/>
+        <c:crossAx val="-831644032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535517999"/>
+        <c:axId val="-831644032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,7 +7473,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535516751"/>
+        <c:crossAx val="-831657088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7490,7 +7488,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7532,7 +7530,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7682,7 +7680,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D459-45DD-BDAF-D6B6AF750765}"/>
             </c:ext>
@@ -7696,11 +7694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1672630575"/>
-        <c:axId val="1672645967"/>
+        <c:axId val="-831650016"/>
+        <c:axId val="-831665248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1672630575"/>
+        <c:axId val="-831650016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7757,12 +7755,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1672645967"/>
+        <c:crossAx val="-831665248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1672645967"/>
+        <c:axId val="-831665248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7817,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1672630575"/>
+        <c:crossAx val="-831650016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7834,7 +7832,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7876,7 +7874,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8033,7 +8031,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3364-4243-B4CE-6A4FBA134FBC}"/>
             </c:ext>
@@ -8047,11 +8045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1735240991"/>
-        <c:axId val="1735231007"/>
+        <c:axId val="-831666336"/>
+        <c:axId val="-831665792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1735240991"/>
+        <c:axId val="-831666336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8108,12 +8106,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735231007"/>
+        <c:crossAx val="-831665792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1735231007"/>
+        <c:axId val="-831665792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8170,7 +8168,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735240991"/>
+        <c:crossAx val="-831666336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8185,7 +8183,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -8227,7 +8225,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8377,7 +8375,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-80BE-4635-ACDE-6D348C4AFD6C}"/>
             </c:ext>
@@ -8391,11 +8389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1576091839"/>
-        <c:axId val="1576088511"/>
+        <c:axId val="-831663616"/>
+        <c:axId val="-831642944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1576091839"/>
+        <c:axId val="-831663616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8452,12 +8450,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576088511"/>
+        <c:crossAx val="-831642944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1576088511"/>
+        <c:axId val="-831642944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8514,7 +8512,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576091839"/>
+        <c:crossAx val="-831663616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8529,7 +8527,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -8571,7 +8569,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8720,7 +8718,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D13-4CF7-9EB0-85EAE5D8EA2B}"/>
             </c:ext>
@@ -8826,7 +8824,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9D13-4CF7-9EB0-85EAE5D8EA2B}"/>
             </c:ext>
@@ -8841,11 +8839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1813504912"/>
-        <c:axId val="1813505744"/>
+        <c:axId val="-831664704"/>
+        <c:axId val="-831662528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1813504912"/>
+        <c:axId val="-831664704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8887,7 +8885,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813505744"/>
+        <c:crossAx val="-831662528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8895,7 +8893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1813505744"/>
+        <c:axId val="-831662528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8946,7 +8944,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813504912"/>
+        <c:crossAx val="-831664704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9027,7 +9025,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9177,7 +9175,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7AEE-4D34-A5B2-A9D9FF21F44B}"/>
             </c:ext>
@@ -9283,7 +9281,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7AEE-4D34-A5B2-A9D9FF21F44B}"/>
             </c:ext>
@@ -9298,11 +9296,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1735131583"/>
-        <c:axId val="1735134911"/>
+        <c:axId val="-831661984"/>
+        <c:axId val="-831643488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1735131583"/>
+        <c:axId val="-831661984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9344,7 +9342,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735134911"/>
+        <c:crossAx val="-831643488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9352,7 +9350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1735134911"/>
+        <c:axId val="-831643488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9403,7 +9401,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735131583"/>
+        <c:crossAx val="-831661984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9450,7 +9448,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -9492,7 +9490,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9642,7 +9640,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2F1-4517-AA45-DEA4E8B273F3}"/>
             </c:ext>
@@ -9748,7 +9746,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D2F1-4517-AA45-DEA4E8B273F3}"/>
             </c:ext>
@@ -9763,11 +9761,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1743250847"/>
-        <c:axId val="1743272063"/>
+        <c:axId val="-831636960"/>
+        <c:axId val="-831660352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1743250847"/>
+        <c:axId val="-831636960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9809,7 +9807,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743272063"/>
+        <c:crossAx val="-831660352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9817,7 +9815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1743272063"/>
+        <c:axId val="-831660352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9868,7 +9866,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743250847"/>
+        <c:crossAx val="-831636960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9915,7 +9913,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -9957,7 +9955,7 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10106,7 +10104,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-766B-486E-8EF8-ACB621946C6B}"/>
             </c:ext>
@@ -10212,7 +10210,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-766B-486E-8EF8-ACB621946C6B}"/>
             </c:ext>
@@ -10227,11 +10225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1576121375"/>
-        <c:axId val="1576114719"/>
+        <c:axId val="-831636416"/>
+        <c:axId val="-831661440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1576121375"/>
+        <c:axId val="-831636416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10273,7 +10271,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576114719"/>
+        <c:crossAx val="-831661440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10281,7 +10279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1576114719"/>
+        <c:axId val="-831661440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10332,7 +10330,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576121375"/>
+        <c:crossAx val="-831636416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10378,7 +10376,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -10420,7 +10418,7 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10569,7 +10567,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41F2-4EA0-A67C-B9FC9B133951}"/>
             </c:ext>
@@ -10675,7 +10673,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-41F2-4EA0-A67C-B9FC9B133951}"/>
             </c:ext>
@@ -10690,11 +10688,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1731682895"/>
-        <c:axId val="1731698287"/>
+        <c:axId val="-831646208"/>
+        <c:axId val="-831639136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1731682895"/>
+        <c:axId val="-831646208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10736,7 +10734,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731698287"/>
+        <c:crossAx val="-831639136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10744,7 +10742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1731698287"/>
+        <c:axId val="-831639136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10795,7 +10793,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731682895"/>
+        <c:crossAx val="-831646208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10841,7 +10839,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -10883,7 +10881,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11036,7 +11034,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -11145,7 +11143,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -11160,11 +11158,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712212559"/>
-        <c:axId val="712803263"/>
+        <c:axId val="-880643712"/>
+        <c:axId val="-880642624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712212559"/>
+        <c:axId val="-880643712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11206,7 +11204,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712803263"/>
+        <c:crossAx val="-880642624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11214,7 +11212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712803263"/>
+        <c:axId val="-880642624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11265,7 +11263,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212559"/>
+        <c:crossAx val="-880643712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11347,7 +11345,7 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11496,7 +11494,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C1F-4EF4-8D1D-DE0F8E9B6E40}"/>
             </c:ext>
@@ -11602,7 +11600,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C1F-4EF4-8D1D-DE0F8E9B6E40}"/>
             </c:ext>
@@ -11617,11 +11615,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1674474495"/>
-        <c:axId val="1674479903"/>
+        <c:axId val="-831653824"/>
+        <c:axId val="-831647296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1674474495"/>
+        <c:axId val="-831653824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11663,7 +11661,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1674479903"/>
+        <c:crossAx val="-831647296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11671,7 +11669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1674479903"/>
+        <c:axId val="-831647296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11722,7 +11720,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1674474495"/>
+        <c:crossAx val="-831653824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11768,7 +11766,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -11810,7 +11808,7 @@
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11960,7 +11958,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1A52-4A6A-B14A-C84F5AF83CEB}"/>
             </c:ext>
@@ -11974,11 +11972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1564281903"/>
-        <c:axId val="1564275247"/>
+        <c:axId val="-831641856"/>
+        <c:axId val="-831660896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1564281903"/>
+        <c:axId val="-831641856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12035,12 +12033,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564275247"/>
+        <c:crossAx val="-831660896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1564275247"/>
+        <c:axId val="-831660896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12097,7 +12095,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564281903"/>
+        <c:crossAx val="-831641856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12112,7 +12110,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12154,7 +12152,7 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12303,7 +12301,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93B1-40CE-B610-91C299C6ED63}"/>
             </c:ext>
@@ -12317,11 +12315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1751707871"/>
-        <c:axId val="1751713279"/>
+        <c:axId val="-831659264"/>
+        <c:axId val="-831652736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1751707871"/>
+        <c:axId val="-831659264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12378,12 +12376,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1751713279"/>
+        <c:crossAx val="-831652736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1751713279"/>
+        <c:axId val="-831652736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12440,7 +12438,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1751707871"/>
+        <c:crossAx val="-831659264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12455,7 +12453,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12497,7 +12495,7 @@
 </file>
 
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12647,7 +12645,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B433-41E8-9482-62863E2AF0B1}"/>
             </c:ext>
@@ -12661,11 +12659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1726523023"/>
-        <c:axId val="1726511375"/>
+        <c:axId val="-831659808"/>
+        <c:axId val="-831652192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1726523023"/>
+        <c:axId val="-831659808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12722,12 +12720,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726511375"/>
+        <c:crossAx val="-831652192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1726511375"/>
+        <c:axId val="-831652192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12784,7 +12782,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726523023"/>
+        <c:crossAx val="-831659808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12799,7 +12797,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12841,7 +12839,7 @@
 </file>
 
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12990,7 +12988,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ABCF-4715-82C6-01D12B9B3B03}"/>
             </c:ext>
@@ -13004,11 +13002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1962603935"/>
-        <c:axId val="1962599775"/>
+        <c:axId val="-831635872"/>
+        <c:axId val="-831667968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1962603935"/>
+        <c:axId val="-831635872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13065,12 +13063,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1962599775"/>
+        <c:crossAx val="-831667968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1962599775"/>
+        <c:axId val="-831667968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13127,7 +13125,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1962603935"/>
+        <c:crossAx val="-831635872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13142,7 +13140,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -13184,7 +13182,7 @@
 </file>
 
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13333,7 +13331,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5D7-4984-969D-733B4875D715}"/>
             </c:ext>
@@ -13347,11 +13345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1686700303"/>
-        <c:axId val="1686685743"/>
+        <c:axId val="-831658720"/>
+        <c:axId val="-831667424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1686700303"/>
+        <c:axId val="-831658720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13408,12 +13406,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686685743"/>
+        <c:crossAx val="-831667424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1686685743"/>
+        <c:axId val="-831667424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13470,7 +13468,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686700303"/>
+        <c:crossAx val="-831658720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13485,7 +13483,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -13527,7 +13525,7 @@
 </file>
 
 <file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13676,7 +13674,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF27-4AC4-8E7C-03EEEC65375C}"/>
             </c:ext>
@@ -13782,7 +13780,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF27-4AC4-8E7C-03EEEC65375C}"/>
             </c:ext>
@@ -13797,11 +13795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1671304191"/>
-        <c:axId val="1671306687"/>
+        <c:axId val="-831658176"/>
+        <c:axId val="-831657632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1671304191"/>
+        <c:axId val="-831658176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13843,7 +13841,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671306687"/>
+        <c:crossAx val="-831657632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13851,7 +13849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1671306687"/>
+        <c:axId val="-831657632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13902,7 +13900,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671304191"/>
+        <c:crossAx val="-831658176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13948,7 +13946,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -13990,7 +13988,7 @@
 </file>
 
 <file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14139,7 +14137,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-917A-43D4-A7D5-39E66437BFB6}"/>
             </c:ext>
@@ -14153,11 +14151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1686700303"/>
-        <c:axId val="1686685743"/>
+        <c:axId val="-831656544"/>
+        <c:axId val="-831656000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1686700303"/>
+        <c:axId val="-831656544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14214,12 +14212,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686685743"/>
+        <c:crossAx val="-831656000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1686685743"/>
+        <c:axId val="-831656000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14276,7 +14274,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686700303"/>
+        <c:crossAx val="-831656544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14291,7 +14289,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -14333,7 +14331,7 @@
 </file>
 
 <file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14482,7 +14480,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1241-4490-A1C5-BDB8225FDE60}"/>
             </c:ext>
@@ -14588,7 +14586,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1241-4490-A1C5-BDB8225FDE60}"/>
             </c:ext>
@@ -14603,11 +14601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725641935"/>
-        <c:axId val="1725635695"/>
+        <c:axId val="-831654912"/>
+        <c:axId val="-831654368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725641935"/>
+        <c:axId val="-831654912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14649,7 +14647,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725635695"/>
+        <c:crossAx val="-831654368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14657,7 +14655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725635695"/>
+        <c:axId val="-831654368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14708,7 +14706,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725641935"/>
+        <c:crossAx val="-831654912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14754,7 +14752,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -14796,7 +14794,7 @@
 </file>
 
 <file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14945,7 +14943,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2EC-42CA-AE2B-86F62133B208}"/>
             </c:ext>
@@ -14959,11 +14957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1726526767"/>
-        <c:axId val="1726523023"/>
+        <c:axId val="-831651648"/>
+        <c:axId val="-831642400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1726526767"/>
+        <c:axId val="-831651648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15020,12 +15018,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726523023"/>
+        <c:crossAx val="-831642400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1726523023"/>
+        <c:axId val="-831642400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15082,7 +15080,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726526767"/>
+        <c:crossAx val="-831651648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15097,7 +15095,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -15139,7 +15137,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15292,7 +15290,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -15401,7 +15399,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -15416,11 +15414,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="763750191"/>
-        <c:axId val="763751023"/>
+        <c:axId val="-880642080"/>
+        <c:axId val="-880670912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="763750191"/>
+        <c:axId val="-880642080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15462,7 +15460,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763751023"/>
+        <c:crossAx val="-880670912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15470,7 +15468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="763751023"/>
+        <c:axId val="-880670912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15521,7 +15519,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763750191"/>
+        <c:crossAx val="-880642080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15603,7 +15601,7 @@
 </file>
 
 <file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15752,7 +15750,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E868-4DB0-B2C9-D2A193666D44}"/>
             </c:ext>
@@ -15766,11 +15764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1686687407"/>
-        <c:axId val="1686679919"/>
+        <c:axId val="-831651104"/>
+        <c:axId val="-831650560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1686687407"/>
+        <c:axId val="-831651104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15827,12 +15825,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686679919"/>
+        <c:crossAx val="-831650560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1686679919"/>
+        <c:axId val="-831650560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15889,7 +15887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686687407"/>
+        <c:crossAx val="-831651104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15904,7 +15902,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -15946,7 +15944,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16099,7 +16097,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -16208,7 +16206,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -16223,11 +16221,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605381791"/>
-        <c:axId val="712211727"/>
+        <c:axId val="-880640448"/>
+        <c:axId val="-880665472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605381791"/>
+        <c:axId val="-880640448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16269,7 +16267,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712211727"/>
+        <c:crossAx val="-880665472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16277,7 +16275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712211727"/>
+        <c:axId val="-880665472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16328,7 +16326,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605381791"/>
+        <c:crossAx val="-880640448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16410,7 +16408,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16563,7 +16561,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -16672,7 +16670,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -16687,11 +16685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605382623"/>
-        <c:axId val="712212143"/>
+        <c:axId val="-880670368"/>
+        <c:axId val="-880662752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605382623"/>
+        <c:axId val="-880670368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16733,7 +16731,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212143"/>
+        <c:crossAx val="-880662752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16741,7 +16739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712212143"/>
+        <c:axId val="-880662752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16792,7 +16790,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605382623"/>
+        <c:crossAx val="-880670368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16874,7 +16872,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17026,7 +17024,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -17135,7 +17133,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -17150,11 +17148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712284655"/>
-        <c:axId val="720072719"/>
+        <c:axId val="-1618385264"/>
+        <c:axId val="-1618375472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712284655"/>
+        <c:axId val="-1618385264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17196,7 +17194,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720072719"/>
+        <c:crossAx val="-1618375472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17204,7 +17202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720072719"/>
+        <c:axId val="-1618375472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17255,7 +17253,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284655"/>
+        <c:crossAx val="-1618385264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17336,7 +17334,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17489,7 +17487,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -17598,7 +17596,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -17613,11 +17611,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712283823"/>
-        <c:axId val="712284239"/>
+        <c:axId val="-1618384176"/>
+        <c:axId val="-1618383088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712283823"/>
+        <c:axId val="-1618384176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17659,7 +17657,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284239"/>
+        <c:crossAx val="-1618383088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17667,7 +17665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712284239"/>
+        <c:axId val="-1618383088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17718,7 +17716,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712283823"/>
+        <c:crossAx val="-1618384176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17800,7 +17798,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17814,6 +17812,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17952,7 +17951,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5FC0-4DE6-8600-C3EE744C4BD6}"/>
             </c:ext>
@@ -18061,7 +18060,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5FC0-4DE6-8600-C3EE744C4BD6}"/>
             </c:ext>
@@ -18076,11 +18075,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1768816112"/>
-        <c:axId val="1774937536"/>
+        <c:axId val="-1618377104"/>
+        <c:axId val="-1618387440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768816112"/>
+        <c:axId val="-1618377104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18122,7 +18121,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774937536"/>
+        <c:crossAx val="-1618387440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18130,7 +18129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1774937536"/>
+        <c:axId val="-1618387440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18181,7 +18180,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768816112"/>
+        <c:crossAx val="-1618377104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18195,6 +18194,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -40521,7 +40521,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40557,7 +40557,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40593,7 +40593,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40629,7 +40629,7 @@
         <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40665,7 +40665,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40701,7 +40701,7 @@
         <xdr:cNvPr id="11" name="Диаграмма 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40737,7 +40737,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40773,7 +40773,7 @@
         <xdr:cNvPr id="13" name="Диаграмма 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40814,7 +40814,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40850,7 +40850,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40891,7 +40891,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40927,7 +40927,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40963,7 +40963,7 @@
         <xdr:cNvPr id="23" name="Диаграмма 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40999,7 +40999,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41035,7 +41035,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41071,7 +41071,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41107,7 +41107,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41143,7 +41143,7 @@
         <xdr:cNvPr id="37" name="Диаграмма 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41179,7 +41179,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982690F1-DE83-4763-8566-6A882ECB014C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{982690F1-DE83-4763-8566-6A882ECB014C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41215,7 +41215,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4987C3D8-C39E-41E2-A9B8-F305CAA2CB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4987C3D8-C39E-41E2-A9B8-F305CAA2CB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41251,7 +41251,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2755290-A609-4D97-B85F-FF9960B6C2E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2755290-A609-4D97-B85F-FF9960B6C2E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41287,7 +41287,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777AA67F-CD42-4C20-AB85-CE444619637C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{777AA67F-CD42-4C20-AB85-CE444619637C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41323,7 +41323,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE802EE-7DFC-4B6F-8F76-539A1D3CB469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FE802EE-7DFC-4B6F-8F76-539A1D3CB469}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41359,7 +41359,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99A4CFB-F23C-4B60-B110-70E6F8891552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A99A4CFB-F23C-4B60-B110-70E6F8891552}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41400,7 +41400,7 @@
         <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66296FFF-35B1-4660-9CE8-4D7DB45537C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66296FFF-35B1-4660-9CE8-4D7DB45537C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41438,7 +41438,7 @@
         <xdr:cNvPr id="16" name="Диаграмма 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734B9AD4-1729-41D5-AD21-42127460EB92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{734B9AD4-1729-41D5-AD21-42127460EB92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41474,7 +41474,7 @@
         <xdr:cNvPr id="20" name="Диаграмма 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B743DC43-EE6E-4203-BB75-B6A0168AB9F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B743DC43-EE6E-4203-BB75-B6A0168AB9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41510,7 +41510,7 @@
         <xdr:cNvPr id="23" name="Диаграмма 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103ED6FB-0690-47F5-89A2-7BAA31079BC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{103ED6FB-0690-47F5-89A2-7BAA31079BC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41546,7 +41546,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA8C440-04D8-4E5C-8FA9-CCE90C3B0BAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABA8C440-04D8-4E5C-8FA9-CCE90C3B0BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41582,7 +41582,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C293410F-D3A3-47E4-BF73-46092C7D941B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C293410F-D3A3-47E4-BF73-46092C7D941B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41620,7 +41620,7 @@
         <xdr:cNvPr id="27" name="Диаграмма 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECC733A-B20A-4787-8177-6E80838F3ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AECC733A-B20A-4787-8177-6E80838F3ED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41656,7 +41656,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5076FE1A-FC97-430D-8A16-62AA7561D08A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5076FE1A-FC97-430D-8A16-62AA7561D08A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41692,7 +41692,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4819F50A-566F-4F28-AAE1-4BE67D92CAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4819F50A-566F-4F28-AAE1-4BE67D92CAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41728,7 +41728,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E02DEC-A494-495D-B1CD-84400D8D4543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34E02DEC-A494-495D-B1CD-84400D8D4543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41764,7 +41764,7 @@
         <xdr:cNvPr id="32" name="Диаграмма 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045AA80A-0222-4624-9AEC-CF42B40D7D9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{045AA80A-0222-4624-9AEC-CF42B40D7D9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41800,7 +41800,7 @@
         <xdr:cNvPr id="33" name="Диаграмма 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D072B5-2BC9-493C-B0E7-EFF82424EE49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D072B5-2BC9-493C-B0E7-EFF82424EE49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41836,7 +41836,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2A1522-62D7-4774-92B3-63B31D5730E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC2A1522-62D7-4774-92B3-63B31D5730E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41874,7 +41874,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B6C8DA-ACA4-4E16-8AEE-4005124144AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60B6C8DA-ACA4-4E16-8AEE-4005124144AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41912,7 +41912,7 @@
         <xdr:cNvPr id="37" name="Диаграмма 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C69957-6380-42E5-8089-F5CA026DD8FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C69957-6380-42E5-8089-F5CA026DD8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41948,7 +41948,7 @@
         <xdr:cNvPr id="38" name="Диаграмма 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A8D93F-BC89-414C-8347-873A8AF95316}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A8D93F-BC89-414C-8347-873A8AF95316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42257,7 +42257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q288"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
@@ -50836,7 +50836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A145" sqref="A145:C145"/>
     </sheetView>
   </sheetViews>
@@ -56451,8 +56451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL176"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57510,7 +57510,7 @@
         <v>9.6239590240229518</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f>$I3+(1-NORMDIST(K5,AVERAGE($I5:$AH5)*$C5,STDEVA($I5:$AH5)*$C5,1))*K2*(1/(1+EXP(-$A5*(L4-$B5))))</f>
         <v>11.281971815572017</v>
       </c>
       <c r="M7">
